--- a/00.기획서/221102_스테이지0 기획서_V210.xlsx
+++ b/00.기획서/221102_스테이지0 기획서_V210.xlsx
@@ -5440,7 +5440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="319">
   <si>
     <t>속을 알 수 없는 하나와의 첫 데이트. 튜토리얼로 플레이어에게 모든 기능을 체험시켜줌.</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -6387,19 +6387,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3. date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. char</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 스테이지0 설명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테이지0 VPS 상세 기획을 설명한다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -6628,10 +6616,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지0 - 방명록</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>진행 순서</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -6715,6 +6699,34 @@
   </si>
   <si>
     <t>s0_btn_giveup.png</t>
+  </si>
+  <si>
+    <t>3. 방명록 연출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. char</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지0 - 방명록 연출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>김효진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표지점4에서 이루어지는 방명록 이벤트 연출에 대한 상세 기획을 작성하낟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지0의 목표지점1에서 이루어지는 VPS 상세 기획을 설명한다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6902,7 +6914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -7304,13 +7316,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7464,6 +7502,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7512,39 +7583,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7573,6 +7611,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7614,16 +7664,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15430,7 +15483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P32"/>
+  <dimension ref="C1:P33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -15441,38 +15494,38 @@
   <sheetData>
     <row r="1" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="56"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C4" s="24"/>
@@ -15589,158 +15642,162 @@
     <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="57" t="s">
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="O11" s="58"/>
+      <c r="O11" s="69"/>
       <c r="P11" s="26"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C12" s="24"/>
       <c r="D12" s="25"/>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64" t="s">
+      <c r="F12" s="74"/>
+      <c r="G12" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="65" t="s">
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="26"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="O13" s="77"/>
+      <c r="O13" s="61"/>
       <c r="P13" s="26"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C14" s="24"/>
       <c r="D14" s="25"/>
-      <c r="E14" s="73" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="27" t="s">
-        <v>224</v>
-      </c>
-      <c r="O14" s="28" t="s">
-        <v>225</v>
-      </c>
+      <c r="E14" s="107" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="O14" s="106"/>
       <c r="P14" s="26"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C15" s="24"/>
       <c r="D15" s="25"/>
-      <c r="E15" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69" t="s">
+      <c r="E15" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="P15" s="26"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="70" t="s">
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="O15" s="71"/>
-      <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="O16" s="55"/>
+      <c r="P16" s="26"/>
+    </row>
+    <row r="17" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="31"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="J18" s="72"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -15755,8 +15812,10 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="I19" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="J19" s="56"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -15764,17 +15823,15 @@
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
-      <c r="G20" s="25" t="s">
-        <v>239</v>
-      </c>
+      <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -15787,12 +15844,10 @@
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
-      <c r="G21" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>230</v>
-      </c>
+      <c r="G21" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
@@ -15811,7 +15866,7 @@
         <v>229</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
@@ -15831,7 +15886,7 @@
         <v>229</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -15847,10 +15902,12 @@
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="25"/>
+      <c r="G24" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>232</v>
+      </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
@@ -15865,12 +15922,10 @@
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>242</v>
-      </c>
+      <c r="G25" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
@@ -15886,10 +15941,10 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
@@ -15905,10 +15960,12 @@
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
-      <c r="G27" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="H27" s="25"/>
+      <c r="G27" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>240</v>
+      </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
@@ -15923,7 +15980,9 @@
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="49" t="s">
+        <v>281</v>
+      </c>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -15939,9 +15998,7 @@
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="25" t="s">
-        <v>285</v>
-      </c>
+      <c r="G29" s="49"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -15957,7 +16014,9 @@
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
+      <c r="G30" s="25" t="s">
+        <v>282</v>
+      </c>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
@@ -15973,9 +16032,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
-      <c r="G31" s="25" t="s">
-        <v>226</v>
-      </c>
+      <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
@@ -15986,33 +16043,42 @@
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
     </row>
-    <row r="32" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="29"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="26"/>
+    </row>
+    <row r="33" spans="3:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:M14"/>
+  <mergeCells count="19">
     <mergeCell ref="C2:P3"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:M11"/>
@@ -16020,6 +16086,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="N12:O12"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16084,7 +16162,7 @@
     <row r="5" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="D5" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -16105,10 +16183,10 @@
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" t="s">
         <v>245</v>
-      </c>
-      <c r="D6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="7" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16134,10 +16212,10 @@
     </row>
     <row r="8" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16163,10 +16241,10 @@
     </row>
     <row r="10" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="37"/>
@@ -16187,7 +16265,7 @@
     </row>
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37"/>
@@ -16208,10 +16286,10 @@
     </row>
     <row r="12" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -16233,7 +16311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Q62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16248,7 +16328,7 @@
   <sheetData>
     <row r="2" spans="3:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="79" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="79"/>
       <c r="E2" s="79"/>
@@ -16285,7 +16365,7 @@
     <row r="5" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="40"/>
       <c r="D5" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -16315,10 +16395,10 @@
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C7" s="48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -16332,7 +16412,7 @@
     <row r="8" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C8" s="23"/>
       <c r="D8" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -16357,43 +16437,43 @@
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C10" s="48" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C14" s="44" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.3">
@@ -16444,7 +16524,7 @@
     <row r="35" spans="3:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C35" s="40"/>
       <c r="D35" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -16474,10 +16554,10 @@
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C37" s="48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -16490,43 +16570,43 @@
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D41" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D42" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C57" s="48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D59" s="46" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E59" s="80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F59" s="81"/>
       <c r="G59" s="81"/>
@@ -16534,7 +16614,7 @@
       <c r="I59" s="81"/>
       <c r="J59" s="82"/>
       <c r="K59" s="86" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L59" s="86"/>
       <c r="M59" s="86"/>
@@ -16542,10 +16622,10 @@
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D60" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E60" s="83" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F60" s="84"/>
       <c r="G60" s="84"/>
@@ -16553,7 +16633,7 @@
       <c r="I60" s="84"/>
       <c r="J60" s="85"/>
       <c r="K60" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L60" s="87"/>
       <c r="M60" s="87"/>
@@ -16561,10 +16641,10 @@
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D61" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E61" s="83" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F61" s="84"/>
       <c r="G61" s="84"/>
@@ -16572,7 +16652,7 @@
       <c r="I61" s="84"/>
       <c r="J61" s="85"/>
       <c r="K61" s="87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L61" s="87"/>
       <c r="M61" s="87"/>
@@ -16580,10 +16660,10 @@
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D62" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E62" s="83" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F62" s="84"/>
       <c r="G62" s="84"/>
@@ -16591,7 +16671,7 @@
       <c r="I62" s="84"/>
       <c r="J62" s="85"/>
       <c r="K62" s="87" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L62" s="87"/>
       <c r="M62" s="87"/>
@@ -16620,7 +16700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S112"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16628,51 +16710,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
+      <c r="B2" s="109" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
     </row>
     <row r="5" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="40"/>
       <c r="C5" s="41" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -16693,28 +16775,28 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="40"/>
       <c r="C13" s="41" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -16735,176 +16817,176 @@
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H23" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="I23" s="104" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
-      <c r="O23" s="104"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
+        <v>291</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H24" s="50">
         <v>1</v>
       </c>
-      <c r="I24" s="103" t="s">
-        <v>297</v>
-      </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
+      <c r="I24" s="88" t="s">
+        <v>293</v>
+      </c>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H25" s="50">
         <v>2</v>
       </c>
-      <c r="I25" s="103" t="s">
-        <v>298</v>
-      </c>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
+      <c r="I25" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H26" s="50">
         <v>3</v>
       </c>
-      <c r="I26" s="103" t="s">
-        <v>305</v>
-      </c>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
+      <c r="I26" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H27" s="50">
         <v>4</v>
       </c>
-      <c r="I27" s="103" t="s">
-        <v>299</v>
-      </c>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
+      <c r="I27" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H28" s="50">
         <v>5</v>
       </c>
-      <c r="I28" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
+      <c r="I28" s="88" t="s">
+        <v>296</v>
+      </c>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
     </row>
     <row r="29" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H29" s="50">
         <v>6</v>
       </c>
-      <c r="I29" s="103" t="s">
-        <v>301</v>
-      </c>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
+      <c r="I29" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
     </row>
     <row r="30" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H30" s="87">
         <v>7</v>
       </c>
-      <c r="I30" s="103" t="s">
-        <v>303</v>
-      </c>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
+      <c r="I30" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
     </row>
     <row r="31" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H31" s="87"/>
-      <c r="I31" s="103" t="s">
-        <v>304</v>
-      </c>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
+      <c r="I31" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
     </row>
     <row r="32" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H32" s="50">
         <v>8</v>
       </c>
-      <c r="I32" s="103" t="s">
-        <v>302</v>
-      </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
+      <c r="I32" s="88" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
     </row>
     <row r="46" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="40"/>
       <c r="C46" s="41" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -16926,7 +17008,7 @@
     <row r="76" spans="2:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="40"/>
       <c r="C76" s="41" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -16947,48 +17029,48 @@
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J83" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J87" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M87" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J90" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M90" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C91" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="102" t="s">
-        <v>308</v>
-      </c>
-      <c r="H91" s="102"/>
-      <c r="I91" s="102"/>
+      <c r="C91" s="89" t="s">
+        <v>303</v>
+      </c>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="H91" s="90"/>
+      <c r="I91" s="90"/>
     </row>
     <row r="112" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E112" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="F112" s="101"/>
-      <c r="G112" s="101"/>
-      <c r="H112" s="101"/>
+      <c r="E112" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="F112" s="89"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -17019,7 +17101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG10"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -17052,50 +17134,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="94" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="95" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="97" t="s">
+      <c r="L2" s="99"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="94" t="s">
+      <c r="X2" s="95"/>
+      <c r="Y2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="88" t="s">
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
     </row>
     <row r="3" spans="2:33" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -17167,11 +17249,11 @@
       <c r="X3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="98" t="s">
+      <c r="Y3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="100"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="104"/>
       <c r="AB3" s="6" t="s">
         <v>12</v>
       </c>
@@ -17265,7 +17347,7 @@
         <v>36</v>
       </c>
       <c r="Z4" s="84"/>
-      <c r="AA4" s="90"/>
+      <c r="AA4" s="94"/>
       <c r="AB4" s="9" t="s">
         <v>37</v>
       </c>
@@ -17379,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="Z6" s="84"/>
-      <c r="AA6" s="90"/>
+      <c r="AA6" s="94"/>
       <c r="AB6" s="9"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -17429,7 +17511,7 @@
       <c r="X7" s="17"/>
       <c r="Y7" s="83"/>
       <c r="Z7" s="84"/>
-      <c r="AA7" s="90"/>
+      <c r="AA7" s="94"/>
       <c r="AB7" s="19" t="s">
         <v>46</v>
       </c>
@@ -17517,7 +17599,7 @@
       <c r="X8" s="17"/>
       <c r="Y8" s="83"/>
       <c r="Z8" s="84"/>
-      <c r="AA8" s="90"/>
+      <c r="AA8" s="94"/>
       <c r="AB8" s="19"/>
       <c r="AC8" s="15"/>
       <c r="AD8" s="15"/>
@@ -17573,7 +17655,7 @@
       </c>
       <c r="Y9" s="83"/>
       <c r="Z9" s="84"/>
-      <c r="AA9" s="90"/>
+      <c r="AA9" s="94"/>
       <c r="AB9" s="19"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
